--- a/scripts/Variables.xlsx
+++ b/scripts/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juandiego/Desktop/GitHub/Problem_Set_3/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AED5C0-DE86-5443-835F-2B77CA615413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF26BE-C06A-CE40-A1C7-8B9305B36514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{DFEBC875-F104-DA4C-8A7A-4B413BE40663}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="158">
   <si>
     <t>Clase</t>
   </si>
@@ -498,13 +498,25 @@
   </si>
   <si>
     <t>Son la misma variable P7505, solo que desagregada</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Por qué no incluirla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># de missing </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,6 +533,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DejaVuSansCondensed"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="DejaVuSansCondensed"/>
@@ -687,11 +705,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -702,14 +718,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,17 +734,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,913 +1068,1018 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
+      <c r="A4" s="30">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>64030</v>
+      </c>
+      <c r="H4" s="31">
+        <v>25201</v>
+      </c>
+      <c r="I4" s="31">
+        <v>40967</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31">
+        <v>0</v>
+      </c>
+      <c r="O4" s="31">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="8" t="s">
+      <c r="Q13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
+      <c r="A16" s="30">
+        <v>0</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <v>38817</v>
+      </c>
+      <c r="I16" s="31">
+        <v>50806</v>
+      </c>
+      <c r="J16" s="31">
+        <v>9169</v>
+      </c>
+      <c r="K16" s="31">
+        <v>38817</v>
+      </c>
+      <c r="L16" s="31">
+        <v>38817</v>
+      </c>
+      <c r="M16" s="31">
+        <v>119704</v>
+      </c>
+      <c r="N16" s="31">
+        <v>119704</v>
+      </c>
+      <c r="O16" s="31">
+        <v>119704</v>
+      </c>
+      <c r="P16" s="32">
+        <v>174430</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
+      <c r="Q17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="A20" s="30">
+        <v>174430</v>
+      </c>
+      <c r="B20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="C20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="D20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="E20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="F20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="G20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="H20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="I20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="J20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="K20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="L20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="M20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="N20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="O20" s="31">
+        <v>174430</v>
+      </c>
+      <c r="P20" s="32">
+        <v>119704</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
+      <c r="Q21" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
+      <c r="A24" s="30">
+        <v>119704</v>
+      </c>
+      <c r="B24" s="31">
+        <v>120159</v>
+      </c>
+      <c r="C24" s="31">
+        <v>119704</v>
+      </c>
+      <c r="D24" s="31">
+        <v>214641</v>
+      </c>
+      <c r="E24" s="31">
+        <v>214641</v>
+      </c>
+      <c r="F24" s="31">
+        <v>119704</v>
+      </c>
+      <c r="G24" s="31">
+        <v>210947</v>
+      </c>
+      <c r="H24" s="31">
+        <v>210947</v>
+      </c>
+      <c r="I24" s="31">
+        <v>195349</v>
+      </c>
+      <c r="J24" s="31">
+        <v>195349</v>
+      </c>
+      <c r="K24" s="31">
+        <v>207671</v>
+      </c>
+      <c r="L24" s="31">
+        <v>209044</v>
+      </c>
+      <c r="M24" s="31">
+        <v>209044</v>
+      </c>
+      <c r="N24" s="31">
+        <v>150730</v>
+      </c>
+      <c r="O24" s="31">
+        <v>38817</v>
+      </c>
+      <c r="P24" s="32">
+        <v>203814</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="4"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="7"/>
+      <c r="A28" s="30">
+        <v>203814</v>
+      </c>
+      <c r="B28" s="31">
+        <v>38817</v>
+      </c>
+      <c r="C28" s="31">
+        <v>182926</v>
+      </c>
+      <c r="D28" s="31">
+        <v>182926</v>
+      </c>
+      <c r="E28" s="31">
+        <v>182926</v>
+      </c>
+      <c r="F28" s="31">
+        <v>182926</v>
+      </c>
+      <c r="G28" s="31">
+        <v>182926</v>
+      </c>
+      <c r="H28" s="31">
+        <v>182926</v>
+      </c>
+      <c r="I28" s="31">
+        <v>38817</v>
+      </c>
+      <c r="J28" s="31">
+        <v>119704</v>
+      </c>
+      <c r="K28" s="31">
+        <v>207671</v>
+      </c>
+      <c r="L28" s="31">
+        <v>150730</v>
+      </c>
+      <c r="M28" s="31">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0</v>
+      </c>
+      <c r="O28" s="31">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="R28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/scripts/Variables.xlsx
+++ b/scripts/Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juandiego/Desktop/GitHub/Problem_Set_3/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\Problem_Set_3\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF26BE-C06A-CE40-A1C7-8B9305B36514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D848D-A879-445B-9AE3-AC3E6E0F0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{DFEBC875-F104-DA4C-8A7A-4B413BE40663}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFEBC875-F104-DA4C-8A7A-4B413BE40663}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,8 +543,12 @@
       <color theme="1"/>
       <name val="DejaVuSansCondensed"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="DejaVuSansCondensed"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +576,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF214D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -725,6 +747,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,18 +766,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,6 +794,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,11 +1099,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F57B9C-4CA9-E044-9B80-CEEC249C0468}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="44.59765625" customWidth="1"/>
+    <col min="2" max="2" width="119.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
+    <col min="6" max="6" width="129.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="154" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="177.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="142.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="169.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="97.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="209" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="213.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="91.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
@@ -1119,10 +1171,10 @@
       <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="22" t="s">
         <v>154</v>
       </c>
       <c r="R1" s="6" t="s">
@@ -1133,78 +1185,66 @@
       <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="8" t="s">
         <v>83</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="8" t="s">
         <v>88</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="23" t="s">
         <v>155</v>
       </c>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
       <c r="K3" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="23" t="s">
         <v>156</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -1212,76 +1252,76 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="30">
-        <v>0</v>
-      </c>
-      <c r="B4" s="31">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31">
+      <c r="A4" s="25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
         <v>64030</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="26">
         <v>25201</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="26">
         <v>40967</v>
       </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0</v>
-      </c>
-      <c r="L4" s="31">
-        <v>0</v>
-      </c>
-      <c r="M4" s="31">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
-        <v>0</v>
-      </c>
-      <c r="O4" s="31">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="29" t="s">
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>157</v>
       </c>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="2"/>
     </row>
@@ -1323,7 +1363,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1375,10 +1415,10 @@
       <c r="O13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="22" t="s">
         <v>154</v>
       </c>
       <c r="R13" s="6" t="s">
@@ -1389,74 +1429,60 @@
       <c r="A14" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="8" t="s">
         <v>103</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="23" t="s">
         <v>155</v>
       </c>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="23" t="s">
         <v>156</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -1464,61 +1490,61 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="30">
-        <v>0</v>
-      </c>
-      <c r="B16" s="31">
-        <v>0</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
-        <v>0</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="A16" s="25">
+        <v>0</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
         <v>38817</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="26">
         <v>50806</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="26">
         <v>9169</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="26">
         <v>38817</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="26">
         <v>38817</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="26">
         <v>119704</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="26">
         <v>119704</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="26">
         <v>119704</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="27">
         <v>174430</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="23" t="s">
         <v>157</v>
       </c>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1563,10 +1589,10 @@
       <c r="O17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="22" t="s">
         <v>154</v>
       </c>
       <c r="R17" s="2"/>
@@ -1575,16 +1601,16 @@
       <c r="A18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -1599,19 +1625,19 @@
       <c r="I18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="8" t="s">
         <v>118</v>
       </c>
       <c r="O18" s="15" t="s">
@@ -1620,39 +1646,38 @@
       <c r="P18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="Q18" s="28" t="s">
+      <c r="Q18" s="23" t="s">
         <v>155</v>
       </c>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="28" t="s">
+      <c r="Q19" s="23" t="s">
         <v>156</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -1660,61 +1685,61 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="30">
+      <c r="A20" s="25">
         <v>174430</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>174430</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="26">
         <v>174430</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="26">
         <v>174430</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="26">
         <v>174430</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="26">
         <v>174430</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="26">
         <v>174430</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="26">
         <v>174430</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="26">
         <v>174430</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="26">
         <v>174430</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="26">
         <v>174430</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="26">
         <v>174430</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="26">
         <v>174430</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="26">
         <v>174430</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="26">
         <v>174430</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="27">
         <v>119704</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="24" t="s">
         <v>157</v>
       </c>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1729,7 +1754,7 @@
       <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="38" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -1753,16 +1778,16 @@
       <c r="M21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="37" t="s">
         <v>58</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="23" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="2"/>
@@ -1771,74 +1796,60 @@
       <c r="A22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="8" t="s">
         <v>134</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="23" t="s">
         <v>155</v>
       </c>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="28" t="s">
+      <c r="Q23" s="23" t="s">
         <v>156</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -1846,82 +1857,82 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="30">
+      <c r="A24" s="25">
         <v>119704</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="26">
         <v>120159</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="26">
         <v>119704</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="26">
         <v>214641</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="26">
         <v>214641</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="26">
         <v>119704</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="26">
         <v>210947</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="26">
         <v>210947</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="26">
         <v>195349</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="26">
         <v>195349</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="26">
         <v>207671</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="26">
         <v>209044</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="26">
         <v>209044</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="26">
         <v>150730</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="26">
         <v>38817</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="27">
         <v>203814</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="24" t="s">
         <v>157</v>
       </c>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="39" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -1945,8 +1956,8 @@
       <c r="O25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="28" t="s">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="23" t="s">
         <v>154</v>
       </c>
       <c r="R25" s="2"/>
@@ -1955,74 +1966,66 @@
       <c r="A26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="8" t="s">
         <v>142</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="8" t="s">
         <v>89</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="28" t="s">
+      <c r="Q26" s="23" t="s">
         <v>155</v>
       </c>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="28" t="s">
+      <c r="Q27" s="23" t="s">
         <v>156</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -2030,53 +2033,53 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="30">
+      <c r="A28" s="25">
         <v>203814</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="26">
         <v>38817</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="26">
         <v>182926</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="26">
         <v>182926</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="26">
         <v>182926</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="26">
         <v>182926</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="26">
         <v>182926</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="26">
         <v>182926</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="26">
         <v>38817</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="26">
         <v>119704</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="26">
         <v>207671</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="26">
         <v>150730</v>
       </c>
-      <c r="M28" s="31">
-        <v>0</v>
-      </c>
-      <c r="N28" s="31">
-        <v>0</v>
-      </c>
-      <c r="O28" s="31">
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+      <c r="N28" s="26">
+        <v>0</v>
+      </c>
+      <c r="O28" s="26">
         <v>0</v>
       </c>
       <c r="P28" s="5"/>
-      <c r="Q28" s="29" t="s">
+      <c r="Q28" s="24" t="s">
         <v>157</v>
       </c>
       <c r="R28" s="5"/>

--- a/scripts/Variables.xlsx
+++ b/scripts/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\Problem_Set_3\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D848D-A879-445B-9AE3-AC3E6E0F0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30788A26-5F73-4E86-9EA1-227939558338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFEBC875-F104-DA4C-8A7A-4B413BE40663}"/>
   </bookViews>
@@ -482,9 +482,6 @@
     <t xml:space="preserve">Inactivo 1: sí </t>
   </si>
   <si>
-    <t>Pueden ser una misma categoria</t>
-  </si>
-  <si>
     <t>¿Lo mismo que rural o servicios domesticos?</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t xml:space="preserve"># de missing </t>
+  </si>
+  <si>
+    <t>Pueden ser una misma categoria (me parece) podría ser recibio algún tipo de subsidio</t>
   </si>
 </sst>
 </file>
@@ -569,12 +569,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF214D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,7 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -739,17 +739,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -757,6 +752,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,14 +765,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +802,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F57B9C-4CA9-E044-9B80-CEEC249C0468}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1129,7 +1133,7 @@
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -1144,7 +1148,7 @@
       <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -1156,7 +1160,7 @@
       <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
@@ -1165,24 +1169,24 @@
       <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>154</v>
+      <c r="Q1" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1212,7 +1216,7 @@
       <c r="J2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1227,96 +1231,96 @@
       <c r="O2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>155</v>
+      <c r="Q2" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="20">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>64030</v>
+      </c>
+      <c r="H4" s="21">
+        <v>25201</v>
+      </c>
+      <c r="I4" s="21">
+        <v>40967</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="25">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>64030</v>
-      </c>
-      <c r="H4" s="26">
-        <v>25201</v>
-      </c>
-      <c r="I4" s="26">
-        <v>40967</v>
-      </c>
-      <c r="J4" s="26">
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0</v>
-      </c>
-      <c r="L4" s="26">
-        <v>0</v>
-      </c>
-      <c r="M4" s="26">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26">
-        <v>0</v>
-      </c>
-      <c r="O4" s="26">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="8"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1363,7 +1367,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="34"/>
+      <c r="N12" s="33"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1373,10 +1377,10 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1406,7 +1410,7 @@
       <c r="L13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N13" s="9" t="s">
@@ -1415,18 +1419,18 @@
       <c r="O13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="22" t="s">
-        <v>154</v>
+      <c r="Q13" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1471,140 +1475,140 @@
       <c r="O14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="23" t="s">
-        <v>155</v>
+      <c r="Q14" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="20">
+        <v>0</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <v>38817</v>
+      </c>
+      <c r="I16" s="21">
+        <v>50806</v>
+      </c>
+      <c r="J16" s="21">
+        <v>9169</v>
+      </c>
+      <c r="K16" s="21">
+        <v>38817</v>
+      </c>
+      <c r="L16" s="21">
+        <v>38817</v>
+      </c>
+      <c r="M16" s="21">
+        <v>119704</v>
+      </c>
+      <c r="N16" s="21">
+        <v>119704</v>
+      </c>
+      <c r="O16" s="21">
+        <v>119704</v>
+      </c>
+      <c r="P16" s="22">
+        <v>174430</v>
+      </c>
+      <c r="Q16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="25">
-        <v>0</v>
-      </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0</v>
-      </c>
-      <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>38817</v>
-      </c>
-      <c r="I16" s="26">
-        <v>50806</v>
-      </c>
-      <c r="J16" s="26">
-        <v>9169</v>
-      </c>
-      <c r="K16" s="26">
-        <v>38817</v>
-      </c>
-      <c r="L16" s="26">
-        <v>38817</v>
-      </c>
-      <c r="M16" s="26">
-        <v>119704</v>
-      </c>
-      <c r="N16" s="26">
-        <v>119704</v>
-      </c>
-      <c r="O16" s="26">
-        <v>119704</v>
-      </c>
-      <c r="P16" s="27">
-        <v>174430</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="22" t="s">
-        <v>154</v>
+      <c r="Q17" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1613,22 +1617,22 @@
       <c r="E18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="13" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>115</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -1640,106 +1644,106 @@
       <c r="N18" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Q18" s="23" t="s">
-        <v>155</v>
+      <c r="Q18" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29" t="s">
+      <c r="H19" s="40"/>
+      <c r="I19" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="18" t="s">
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="23" t="s">
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="20">
+        <v>174430</v>
+      </c>
+      <c r="B20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="C20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="D20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="E20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="F20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="G20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="H20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="I20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="J20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="K20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="L20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="M20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="N20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="O20" s="21">
+        <v>174430</v>
+      </c>
+      <c r="P20" s="22">
+        <v>119704</v>
+      </c>
+      <c r="Q20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="25">
-        <v>174430</v>
-      </c>
-      <c r="B20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="C20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="D20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="E20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="F20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="G20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="H20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="I20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="J20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="K20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="L20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="M20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="N20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="O20" s="26">
-        <v>174430</v>
-      </c>
-      <c r="P20" s="27">
-        <v>119704</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>157</v>
-      </c>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1748,28 +1752,28 @@
       <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>55</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -1778,22 +1782,22 @@
       <c r="M21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="26" t="s">
         <v>58</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="23" t="s">
-        <v>154</v>
+      <c r="Q21" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1838,101 +1842,101 @@
       <c r="O22" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="Q22" s="23" t="s">
-        <v>155</v>
+      <c r="Q22" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="20">
+        <v>119704</v>
+      </c>
+      <c r="B24" s="21">
+        <v>120159</v>
+      </c>
+      <c r="C24" s="21">
+        <v>119704</v>
+      </c>
+      <c r="D24" s="21">
+        <v>214641</v>
+      </c>
+      <c r="E24" s="21">
+        <v>214641</v>
+      </c>
+      <c r="F24" s="21">
+        <v>119704</v>
+      </c>
+      <c r="G24" s="21">
+        <v>210947</v>
+      </c>
+      <c r="H24" s="21">
+        <v>210947</v>
+      </c>
+      <c r="I24" s="21">
+        <v>195349</v>
+      </c>
+      <c r="J24" s="21">
+        <v>195349</v>
+      </c>
+      <c r="K24" s="21">
+        <v>207671</v>
+      </c>
+      <c r="L24" s="21">
+        <v>209044</v>
+      </c>
+      <c r="M24" s="21">
+        <v>209044</v>
+      </c>
+      <c r="N24" s="21">
+        <v>150730</v>
+      </c>
+      <c r="O24" s="21">
+        <v>38817</v>
+      </c>
+      <c r="P24" s="22">
+        <v>203814</v>
+      </c>
+      <c r="Q24" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="25">
-        <v>119704</v>
-      </c>
-      <c r="B24" s="26">
-        <v>120159</v>
-      </c>
-      <c r="C24" s="26">
-        <v>119704</v>
-      </c>
-      <c r="D24" s="26">
-        <v>214641</v>
-      </c>
-      <c r="E24" s="26">
-        <v>214641</v>
-      </c>
-      <c r="F24" s="26">
-        <v>119704</v>
-      </c>
-      <c r="G24" s="26">
-        <v>210947</v>
-      </c>
-      <c r="H24" s="26">
-        <v>210947</v>
-      </c>
-      <c r="I24" s="26">
-        <v>195349</v>
-      </c>
-      <c r="J24" s="26">
-        <v>195349</v>
-      </c>
-      <c r="K24" s="26">
-        <v>207671</v>
-      </c>
-      <c r="L24" s="26">
-        <v>209044</v>
-      </c>
-      <c r="M24" s="26">
-        <v>209044</v>
-      </c>
-      <c r="N24" s="26">
-        <v>150730</v>
-      </c>
-      <c r="O24" s="26">
-        <v>38817</v>
-      </c>
-      <c r="P24" s="27">
-        <v>203814</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>157</v>
-      </c>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="27" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -1947,29 +1951,29 @@
       <c r="L25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="23" t="s">
-        <v>154</v>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>138</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -1984,7 +1988,7 @@
       <c r="G26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>143</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -2009,78 +2013,78 @@
         <v>89</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="23" t="s">
-        <v>155</v>
+      <c r="Q26" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1"/>
-      <c r="C27" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="C27" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="20">
+        <v>203814</v>
+      </c>
+      <c r="B28" s="21">
+        <v>38817</v>
+      </c>
+      <c r="C28" s="21">
+        <v>182926</v>
+      </c>
+      <c r="D28" s="21">
+        <v>182926</v>
+      </c>
+      <c r="E28" s="21">
+        <v>182926</v>
+      </c>
+      <c r="F28" s="21">
+        <v>182926</v>
+      </c>
+      <c r="G28" s="21">
+        <v>182926</v>
+      </c>
+      <c r="H28" s="21">
+        <v>182926</v>
+      </c>
+      <c r="I28" s="21">
+        <v>38817</v>
+      </c>
+      <c r="J28" s="21">
+        <v>119704</v>
+      </c>
+      <c r="K28" s="21">
+        <v>207671</v>
+      </c>
+      <c r="L28" s="21">
+        <v>150730</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="25">
-        <v>203814</v>
-      </c>
-      <c r="B28" s="26">
-        <v>38817</v>
-      </c>
-      <c r="C28" s="26">
-        <v>182926</v>
-      </c>
-      <c r="D28" s="26">
-        <v>182926</v>
-      </c>
-      <c r="E28" s="26">
-        <v>182926</v>
-      </c>
-      <c r="F28" s="26">
-        <v>182926</v>
-      </c>
-      <c r="G28" s="26">
-        <v>182926</v>
-      </c>
-      <c r="H28" s="26">
-        <v>182926</v>
-      </c>
-      <c r="I28" s="26">
-        <v>38817</v>
-      </c>
-      <c r="J28" s="26">
-        <v>119704</v>
-      </c>
-      <c r="K28" s="26">
-        <v>207671</v>
-      </c>
-      <c r="L28" s="26">
-        <v>150730</v>
-      </c>
-      <c r="M28" s="26">
-        <v>0</v>
-      </c>
-      <c r="N28" s="26">
-        <v>0</v>
-      </c>
-      <c r="O28" s="26">
-        <v>0</v>
-      </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="R28" s="5"/>
     </row>

--- a/scripts/Variables.xlsx
+++ b/scripts/Variables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\Problem_Set_3\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juandiego/Desktop/GitHub/Problem_Set_3/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30788A26-5F73-4E86-9EA1-227939558338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E335F-34DB-4A4D-8C87-96C524F294D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFEBC875-F104-DA4C-8A7A-4B413BE40663}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{DFEBC875-F104-DA4C-8A7A-4B413BE40663}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="160">
   <si>
     <t>Clase</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>Pueden ser una misma categoria (me parece) podría ser recibio algún tipo de subsidio</t>
+  </si>
+  <si>
+    <t>Estas dos variables se pueden convertir en una sola</t>
+  </si>
+  <si>
+    <t>De esta se puede sacar una dummy acerca de si se tiene una hipoteca o no (acceso al sistema financiero)</t>
   </si>
 </sst>
 </file>
@@ -727,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -756,6 +762,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,23 +786,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,37 +1110,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F57B9C-4CA9-E044-9B80-CEEC249C0468}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="1"/>
-    <col min="2" max="2" width="119.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="119.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="129.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="129.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="154" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="177.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="142.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="169.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="97.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="177.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="142.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="169.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="97.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="209" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="213.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="91.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="213.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -1160,7 +1167,7 @@
       <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
@@ -1311,16 +1318,20 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="8"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="40"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="32"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1331,10 +1342,17 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1"/>
+      <c r="I6">
+        <f>I4+H4</f>
+        <v>66168</v>
+      </c>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1"/>
+      <c r="I7">
+        <v>66168</v>
+      </c>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18">
@@ -1367,7 +1385,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="33"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1380,7 +1398,7 @@
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1548,7 +1566,7 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1572,25 +1590,25 @@
       <c r="H17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="29" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="32" t="s">
         <v>43</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -1657,29 +1675,29 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41" t="s">
+      <c r="H19" s="36"/>
+      <c r="I19" s="33" t="s">
         <v>150</v>
       </c>
       <c r="J19" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="18" t="s">
         <v>155</v>
@@ -1758,7 +1776,7 @@
       <c r="E21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="31" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="10" t="s">
@@ -2020,14 +2038,14 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1"/>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="18" t="s">
         <v>155</v>
@@ -2089,11 +2107,12 @@
       <c r="R28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="C27:H27"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
